--- a/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant _ BAKERY 02012025.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant _ BAKERY 02012025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,6 +633,249 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>150BB4224N</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bag Paper - Baguette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$115.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$230.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>245CCGR2518</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cake Board - Full Sheet (SO)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$48.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$96.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>245CCGR1914</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/2 Sheet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$31.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$63.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>77031906</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Loaf Pan - Large Rectangle (paper)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$134.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$134.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>760SOUP32PBL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lid - Soup (32oz)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$37.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$37.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>760SOUP32MB</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Container - Soup (32oz)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$59.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$59.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>500L4B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lid Espresso - 4oz</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$33.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$33.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5004CAFE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cup - Espresso (4oz)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>43312MINCUP125</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Container - Mini Muffin (12 Pack)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$38.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$38.49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
